--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shantnu\Desktop\COMP6202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shant\Desktop\comp6202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{534B6C46-9151-4542-A9B6-C8FDA2F20D8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CA134C-B200-4AFD-8B89-CAE34D586C84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -598,62 +605,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Figure 2.2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2763,20 +2715,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2798,7 +2736,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number of Individuals</a:t>
+                  <a:t>Global Genotype Frequency</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2870,7 +2808,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2964,62 +2904,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Figure 2.1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4139,20 +4024,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4246,7 +4117,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -5814,22 +5687,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.3046875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.84375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.53515625" customWidth="1"/>
+    <col min="7" max="7" width="19.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5852,7 +5725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5877,7 +5750,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5902,7 +5775,7 @@
         <v>0.52463115778944736</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5927,7 +5800,7 @@
         <v>0.55427713856928462</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5952,7 +5825,7 @@
         <v>0.58479239619809908</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5977,7 +5850,7 @@
         <v>0.61430715357678845</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6002,7 +5875,7 @@
         <v>0.64457228614307149</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6027,7 +5900,7 @@
         <v>0.67358679339669836</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6052,7 +5925,7 @@
         <v>0.6974243560890222</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6077,7 +5950,7 @@
         <v>0.71760880440220109</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6102,7 +5975,7 @@
         <v>0.73486743371685848</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6127,7 +6000,7 @@
         <v>0.74887443721860936</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6152,7 +6025,7 @@
         <v>0.75712856428214104</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6177,7 +6050,7 @@
         <v>0.76238119059529763</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6202,7 +6075,7 @@
         <v>0.76582436827620715</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6227,7 +6100,7 @@
         <v>0.76663331665832912</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6252,7 +6125,7 @@
         <v>0.76588294147073532</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6277,7 +6150,7 @@
         <v>0.75612806403201605</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6302,7 +6175,7 @@
         <v>0.74662331165582796</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6327,7 +6200,7 @@
         <v>0.73668417104276074</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6352,7 +6225,7 @@
         <v>0.72618154538634661</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6377,7 +6250,7 @@
         <v>0.71342835708927232</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6402,7 +6275,7 @@
         <v>0.70302727045283964</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6427,7 +6300,7 @@
         <v>0.68384192096048024</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6452,7 +6325,7 @@
         <v>0.66283141570785398</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6477,7 +6350,7 @@
         <v>0.64298223667750809</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6502,7 +6375,7 @@
         <v>0.62331165582791392</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6527,7 +6400,7 @@
         <v>0.59664916229057263</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6552,7 +6425,7 @@
         <v>0.57439359839959991</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6577,7 +6450,7 @@
         <v>0.55116337252939707</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6602,7 +6475,7 @@
         <v>0.52789592194145607</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6627,7 +6500,7 @@
         <v>0.50312578144536135</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6652,7 +6525,7 @@
         <v>0.47948974487243623</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6677,7 +6550,7 @@
         <v>0.45547773886943471</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6702,7 +6575,7 @@
         <v>0.43460865216304079</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6727,7 +6600,7 @@
         <v>0.41760440110027508</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6752,7 +6625,7 @@
         <v>0.39584896224056015</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6777,7 +6650,7 @@
         <v>0.37393696848424213</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6802,7 +6675,7 @@
         <v>0.35333833458364589</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6827,7 +6700,7 @@
         <v>0.33383345836459116</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6852,7 +6725,7 @@
         <v>0.31707926981745438</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6877,7 +6750,7 @@
         <v>0.30607651912978245</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6902,7 +6775,7 @@
         <v>0.29139569784892444</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6927,7 +6800,7 @@
         <v>0.27831957989497375</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6952,7 +6825,7 @@
         <v>0.2603150787696924</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6977,7 +6850,7 @@
         <v>0.24881220305076268</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -7002,7 +6875,7 @@
         <v>0.23705926481620404</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -7027,7 +6900,7 @@
         <v>0.22630657664416104</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -7052,7 +6925,7 @@
         <v>0.21680420105026257</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -7077,7 +6950,7 @@
         <v>0.20555138784696175</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -7102,7 +6975,7 @@
         <v>0.1970492623155789</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -7127,7 +7000,7 @@
         <v>0.18604651162790697</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -7152,7 +7025,7 @@
         <v>0.17754438609652412</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -7177,7 +7050,7 @@
         <v>0.16779194798699676</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -7202,7 +7075,7 @@
         <v>0.1595398849712428</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -7227,7 +7100,7 @@
         <v>0.14803700925231308</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
@@ -7252,7 +7125,7 @@
         <v>0.13978494623655913</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7277,7 +7150,7 @@
         <v>0.12953238309577395</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7302,7 +7175,7 @@
         <v>0.12103025756439109</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7327,7 +7200,7 @@
         <v>0.11227806951737934</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7352,7 +7225,7 @@
         <v>0.10527631907976995</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7377,7 +7250,7 @@
         <v>9.7524381095273824E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7402,7 +7275,7 @@
         <v>9.1272818204551132E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7427,7 +7300,7 @@
         <v>8.4521130282570647E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7452,7 +7325,7 @@
         <v>7.9019754938734685E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7477,7 +7350,7 @@
         <v>7.3768442110527632E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7502,7 +7375,7 @@
         <v>6.9267316829207295E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7527,7 +7400,7 @@
         <v>6.4016004001000257E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7552,7 +7425,7 @@
         <v>6.0015003750937733E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7577,7 +7450,7 @@
         <v>5.5513878469617403E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7602,7 +7475,7 @@
         <v>5.1262815703925983E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7627,7 +7500,7 @@
         <v>4.7511877969492376E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7652,7 +7525,7 @@
         <v>4.4511127781945485E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7677,7 +7550,7 @@
         <v>4.1010252563140788E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7702,7 +7575,7 @@
         <v>3.8009502375593897E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7727,7 +7600,7 @@
         <v>3.5258814703675916E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7752,7 +7625,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7777,7 +7650,7 @@
         <v>2.9507376844211054E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7802,7 +7675,7 @@
         <v>2.7256814203550889E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7827,7 +7700,7 @@
         <v>2.5006251562890724E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7852,7 +7725,7 @@
         <v>2.3005751437859465E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7877,7 +7750,7 @@
         <v>2.1005251312828207E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7902,7 +7775,7 @@
         <v>1.9254813703425855E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7927,7 +7800,7 @@
         <v>1.7504376094023506E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7952,7 +7825,7 @@
         <v>1.6004001000250064E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7977,7 +7850,7 @@
         <v>1.4503625906476619E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
@@ -8002,7 +7875,7 @@
         <v>1.3003250812703177E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>86</v>
       </c>
@@ -8027,7 +7900,7 @@
         <v>1.1502875718929733E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
@@ -8052,7 +7925,7 @@
         <v>1.0502625656414103E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>88</v>
       </c>
@@ -8077,7 +7950,7 @@
         <v>9.2523130782695678E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
@@ -8102,7 +7975,7 @@
         <v>8.2520630157539385E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>90</v>
       </c>
@@ -8127,7 +8000,7 @@
         <v>7.5018754688672166E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>91</v>
       </c>
@@ -8152,7 +8025,7 @@
         <v>6.7516879219804947E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
@@ -8177,7 +8050,7 @@
         <v>6.0015003750937736E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>93</v>
       </c>
@@ -8202,7 +8075,7 @@
         <v>5.501375343835959E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8227,7 +8100,7 @@
         <v>5.0012503125781444E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8252,7 +8125,7 @@
         <v>4.5011252813203298E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>96</v>
       </c>
@@ -8277,7 +8150,7 @@
         <v>4.001000250062516E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>97</v>
       </c>
@@ -8302,7 +8175,7 @@
         <v>3.500875218804701E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>98</v>
       </c>
@@ -8327,7 +8200,7 @@
         <v>3.0007501875468868E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>99</v>
       </c>
@@ -8352,7 +8225,7 @@
         <v>2.7506876719179795E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>100</v>
       </c>
@@ -8377,7 +8250,7 @@
         <v>2.5006251562890722E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>101</v>
       </c>
@@ -8402,7 +8275,7 @@
         <v>2.2505626406601649E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>102</v>
       </c>
@@ -8427,7 +8300,7 @@
         <v>2.000500125031258E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>103</v>
       </c>
@@ -8452,7 +8325,7 @@
         <v>1.7504376094023505E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>104</v>
       </c>
@@ -8477,7 +8350,7 @@
         <v>1.5003750937734434E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>105</v>
       </c>
@@ -8502,7 +8375,7 @@
         <v>1.2503125781445361E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>106</v>
       </c>
@@ -8527,7 +8400,7 @@
         <v>1.000250062515629E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8552,7 +8425,7 @@
         <v>7.501875468867217E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>108</v>
       </c>
@@ -8577,7 +8450,7 @@
         <v>5.0012503125781451E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8602,7 +8475,7 @@
         <v>2.5006251562890725E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>110</v>
       </c>
@@ -8627,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8652,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8677,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8702,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8727,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8752,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8777,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8802,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8827,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8852,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8877,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8902,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8927,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8952,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8977,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>125</v>
       </c>
@@ -9002,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>126</v>
       </c>
@@ -9027,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>127</v>
       </c>
@@ -9052,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>128</v>
       </c>
@@ -9077,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>129</v>
       </c>
@@ -9102,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>130</v>
       </c>
@@ -9127,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>131</v>
       </c>
@@ -9152,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>132</v>
       </c>
@@ -9177,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>133</v>
       </c>
@@ -9202,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>134</v>
       </c>
@@ -9227,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>135</v>
       </c>
@@ -9252,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>136</v>
       </c>
@@ -9277,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>137</v>
       </c>
@@ -9302,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>138</v>
       </c>
@@ -9327,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>139</v>
       </c>
@@ -9352,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9377,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9402,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9427,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9452,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9477,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9502,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9527,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9552,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9577,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9602,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>150</v>
       </c>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shant\Desktop\comp6202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shantnu\Desktop\COMP6202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CA134C-B200-4AFD-8B89-CAE34D586C84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5F4CEC25-1A56-4913-B7BF-143B28F42F53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12223" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Generation</t>
   </si>
@@ -4199,6 +4192,2311 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cooperative+Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$H$2:$H$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24681170292573143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2351175587793897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22011005502751377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20060030015007504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17958979489744872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1585792896448224</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13728432108027006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11805902951475739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9799899949974985E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4042021010505258E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9784892446223115E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7278639319659833E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7035276457343005E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8519259629814909E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1015507753876938E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5012506253126562E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9759879939969985E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5503875968992248E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2003000750187547E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5023755938984742E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2554415811858898E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2526263131565786E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0020010005002498E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7520640480360272E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0010005002501249E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5003750937734434E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.000250062515629E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0037528146109581E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.501876407305479E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB5B-41A8-84BE-00C4A31B5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cooperative+Small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$I$2:$I$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22855713928482121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21060530265132565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1950975487743872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18509254627313657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17583791895947973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16783391695847924</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16529132283070769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16433216608304152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16533266633316659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16708354177088544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17308654327163581</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18034017008504252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18714035526644984</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19484742371185593</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20310155077538769</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21885942971485742</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2336168084042021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24781195298824707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26181545386346589</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27706926731682918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28971728796597446</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.31090545272636316</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33316658329164583</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35426569927445584</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.37468734367183593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.40185046261565394</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.42460615153788445</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.44833625218914186</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.47185389041781334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49687421855463865</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52051025512756377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.54452226113056523</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56539134783695921</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.58239559889972492</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6041510377594399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62606303151575793</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64666166541635406</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66616654163540889</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.68292073018254562</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6939234808702176</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.7086043021510755</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.72168042010502631</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.7396849212303076</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.75118779694923732</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.7629407351837959</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.77369342335583891</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78319579894973745</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.7944486121530383</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.80295073768442116</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.81395348837209303</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.82245561390347588</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.8322080520130033</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.84046011502875717</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.85196299074768689</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.86021505376344087</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.87046761690422603</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.87896974243560888</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8877219304826206</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.89472368092023002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.90247561890472616</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.90872718179544887</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.91547886971742931</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.9209802450612653</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.92623155788947242</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.93073268317079272</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.93598399599899973</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.93998499624906229</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.94448612153038258</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94873718429607401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.95248812203050759</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.95548887221805456</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.95898974743685916</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.96199049762440614</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.96474118529632413</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.97049262315578899</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.97274318579644914</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.97499374843710929</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.97699424856214057</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.97899474868717185</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.98074518629657415</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.98249562390597645</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.98399599899974999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.98549637409352342</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.98699674918729685</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.98849712428107028</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.98949737434358587</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99074768692173043</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99174793698424601</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99249812453113273</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99324831207801956</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.99399849962490627</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99449862465616401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99499874968742186</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.9954988747186797</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99599899974993744</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99649912478119529</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99699924981245314</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.997249312328082</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99749937484371087</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.99774943735933985</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.99799949987496872</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.9982495623905977</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.99849962490622657</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.99874968742185544</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.99899974993748442</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.99924981245311328</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.99949987496874215</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.99974993748437113</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB5B-41A8-84BE-00C4A31B5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selfish+Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$J$2:$J$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29907476869217303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34617308654327161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.391695847923962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43421710855427714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47173586793396699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50625312656328159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53488372093023251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55852926463231611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5760380190095048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58854427213606808</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59704852426213106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59929964982491246</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59769827370527895</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59279639819909957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58654327163581788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5727863931965983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55577788894447222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53713428357089277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51762940735183793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49312328082020507</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.47135351513635226</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44422211105552778</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41445722861430717</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38428821616212161</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3544272136068034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32308077019254816</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.29307326831707925</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2636977733299975</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23467600700525393</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20605151287821954</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17783891945972988</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.15007503751875939</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13028257064266066</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11202800700175043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.4023505876469113E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.6288144072036018E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8764691172793197E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1760440110027504E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.2758189547386844E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4506126531632907E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6008004002000999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.0020005001250321E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB5B-41A8-84BE-00C4A31B5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selfish+Small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$K$2:$K$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22555638909727432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20810405202601301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19309654827413708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18009004502251125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17283641820910456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16733366683341672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16254063515878969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15907953976988495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15882941470735368</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16033016508254128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16008004002001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1630815407703852</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1681260945709282</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17383691845922961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17933966983491745</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18334167083541772</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19084542271135568</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19954988747186797</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20855213803450862</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22030507626906726</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23167375531648737</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23961980990495246</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24837418709354678</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25869402051538654</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26888444222111058</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27356839209802453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28132033008252061</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28746559919939957</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29321991493620214</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29707426856714181</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30165082541270638</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30540270135067532</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3043260815203801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.30557639409852461</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30182545636409103</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29764882441220608</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.29457364341085274</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.29207301825456367</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.28432108027006753</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28157039259814953</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.27538769384692346</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27031757939484874</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2603150787696924</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.24881220305076268</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.23705926481620404</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.22630657664416104</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.21680420105026257</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.20555138784696175</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1970492623155789</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.18604651162790697</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17754438609652412</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.16779194798699676</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.1595398849712428</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.14803700925231308</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.13978494623655913</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.12953238309577395</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.12103025756439109</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.11227806951737934</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.10527631907976995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.7524381095273824E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1272818204551132E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.4521130282570647E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.9019754938734685E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.3768442110527632E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.9267316829207295E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.4016004001000257E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.0015003750937733E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.5513878469617403E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.1262815703925983E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.7511877969492376E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.4511127781945485E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.1010252563140788E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.8009502375593897E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.5258814703675916E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.2258064516129031E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.9507376844211054E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.7256814203550889E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.5006251562890724E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.3005751437859465E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1005251312828207E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9254813703425855E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7504376094023506E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6004001000250064E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4503625906476619E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3003250812703177E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1502875718929733E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.0502625656414103E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.2523130782695678E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.2520630157539385E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.5018754688672166E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.7516879219804947E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.0015003750937736E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.501375343835959E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.0012503125781444E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5011252813203298E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.001000250062516E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.500875218804701E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.0007501875468868E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.7506876719179795E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.5006251562890722E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.2505626406601649E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.000500125031258E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.7504376094023505E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5003750937734434E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.2503125781445361E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.000250062515629E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.501875468867217E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.0012503125781451E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.5006251562890725E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB5B-41A8-84BE-00C4A31B5F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="205457728"/>
+        <c:axId val="205452152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="205457728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205452152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205452152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Global</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Genotype Frequency</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205457728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4240,6 +6538,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5311,20 +7649,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>397328</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>188750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5351,16 +8205,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>196560</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>8947</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5380,6 +8234,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447387</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>216477</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D112A128-718C-4168-94D4-A1678E2A6D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5685,24 +8575,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="AA50" sqref="AA50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.3046875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21.84375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="23.53515625" customWidth="1"/>
-    <col min="7" max="7" width="19.3828125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5724,8 +8618,20 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5749,8 +8655,24 @@
         <f>((E2+D2)/(B2+C2+D2+E2))</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2">
+        <f>(B2/(B2+C2+D2+E2))</f>
+        <v>0.25</v>
+      </c>
+      <c r="I2">
+        <f>(C2/(C2+D2+B2+E2))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J2">
+        <f>(D2/(B2+C2+D2+E2))</f>
+        <v>0.25</v>
+      </c>
+      <c r="K2">
+        <f>(E2/(B2+C2+D2+E2))</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5774,8 +8696,24 @@
         <f t="shared" ref="G3:G66" si="0">((E3+D3)/(B3+C3+D3+E3))</f>
         <v>0.52463115778944736</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">(B3/(B3+C3+D3+E3))</f>
+        <v>0.24681170292573143</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">(C3/(C3+D3+B3+E3))</f>
+        <v>0.22855713928482121</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="3">(D3/(B3+C3+D3+E3))</f>
+        <v>0.29907476869217303</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="4">(E3/(B3+C3+D3+E3))</f>
+        <v>0.22555638909727432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5792,15 +8730,31 @@
         <v>832</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="1">((B4+D4)/(B4+D4+E4+C4))</f>
+        <f t="shared" ref="F4:F67" si="5">((B4+D4)/(B4+D4+E4+C4))</f>
         <v>0.58129064532266128</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>0.55427713856928462</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.2351175587793897</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.21060530265132565</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>0.34617308654327161</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>0.20810405202601301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5817,15 +8771,31 @@
         <v>772</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.61180590295147574</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>0.58479239619809908</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.22011005502751377</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.1950975487743872</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0.391695847923962</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.19309654827413708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5842,15 +8812,31 @@
         <v>720</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.63481740870435222</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>0.61430715357678845</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.20060030015007504</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.18509254627313657</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.43421710855427714</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0.18009004502251125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5867,15 +8853,31 @@
         <v>691</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.65132566283141569</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>0.64457228614307149</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.17958979489744872</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.17583791895947973</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.47173586793396699</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0.17283641820910456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5892,15 +8894,31 @@
         <v>669</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.66483241620810407</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>0.67358679339669836</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.1585792896448224</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.16783391695847924</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.50625312656328159</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.16733366683341672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5917,15 +8935,31 @@
         <v>650</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.67216804201050262</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>0.6974243560890222</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.13728432108027006</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.16529132283070769</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.53488372093023251</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.16254063515878969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5942,15 +8976,31 @@
         <v>636</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.67658829414707355</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
         <v>0.71760880440220109</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.11805902951475739</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.16433216608304152</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.55852926463231611</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.15907953976988495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5967,15 +9017,31 @@
         <v>635</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.67583791895947976</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
         <v>0.73486743371685848</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>9.9799899949974985E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.16533266633316659</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.5760380190095048</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0.15882941470735368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5992,15 +9058,31 @@
         <v>641</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.67258629314657326</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
         <v>0.74887443721860936</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>8.4042021010505258E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.16708354177088544</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.58854427213606808</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0.16033016508254128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6017,15 +9099,31 @@
         <v>640</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.66683341670835417</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
         <v>0.75712856428214104</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>6.9784892446223115E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.17308654327163581</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.59704852426213106</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0.16008004002001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6042,15 +9140,31 @@
         <v>652</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.65657828914457228</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
         <v>0.76238119059529763</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>5.7278639319659833E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.18034017008504252</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.59929964982491246</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.1630815407703852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6067,15 +9181,31 @@
         <v>672</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.64473355016262202</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
         <v>0.76582436827620715</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>4.7035276457343005E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.18714035526644984</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.59769827370527895</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0.1681260945709282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6092,15 +9222,31 @@
         <v>695</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.63131565782891441</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0.76663331665832912</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3.8519259629814909E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.19484742371185593</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.59279639819909957</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0.17383691845922961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6117,15 +9263,31 @@
         <v>717</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.61755877938969483</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0.76588294147073532</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>3.1015507753876938E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.20310155077538769</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.58654327163581788</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0.17933966983491745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6142,15 +9304,31 @@
         <v>733</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.59779889944972486</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0.75612806403201605</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2.5012506253126562E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.21885942971485742</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.5727863931965983</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.18334167083541772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6167,15 +9345,31 @@
         <v>763</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.57553776888444219</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0.74662331165582796</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.9759879939969985E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.2336168084042021</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.55577788894447222</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0.19084542271135568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6192,15 +9386,31 @@
         <v>798</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.55263815953988493</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
         <v>0.73668417104276074</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1.5503875968992248E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.24781195298824707</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0.53713428357089277</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0.19954988747186797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6217,15 +9427,31 @@
         <v>834</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.5296324081020255</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0.72618154538634661</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>1.2003000750187547E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0.26181545386346589</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.51762940735183793</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0.20855213803450862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6242,15 +9468,31 @@
         <v>881</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.50262565641410351</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>0.71342835708927232</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>9.5023755938984742E-3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0.27706926731682918</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.49312328082020507</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0.22030507626906726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6267,15 +9509,31 @@
         <v>926</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.47860895671753817</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
         <v>0.70302727045283964</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>7.2554415811858898E-3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0.28971728796597446</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0.47135351513635226</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0.23167375531648737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6292,15 +9550,31 @@
         <v>958</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.44947473736868432</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
         <v>0.68384192096048024</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>5.2526263131565786E-3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0.31090545272636316</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0.44422211105552778</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0.23961980990495246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6317,15 +9591,31 @@
         <v>993</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.41845922961480742</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
         <v>0.66283141570785398</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>4.0020010005002498E-3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0.33316658329164583</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0.41445722861430717</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0.24837418709354678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6342,15 +9632,31 @@
         <v>1034</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.38704028021015763</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
         <v>0.64298223667750809</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>2.7520640480360272E-3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.35426569927445584</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0.38428821616212161</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0.25869402051538654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6367,15 +9673,31 @@
         <v>1075</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.35642821410705355</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
         <v>0.62331165582791392</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>2.0010005002501249E-3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0.37468734367183593</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0.3544272136068034</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0.26888444222111058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6392,15 +9714,31 @@
         <v>1094</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.32458114528632159</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
         <v>0.59664916229057263</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1.5003750937734434E-3</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0.40185046261565394</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0.32308077019254816</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>0.27356839209802453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6417,15 +9755,31 @@
         <v>1125</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.29407351837959489</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
         <v>0.57439359839959991</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1.000250062515629E-3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.42460615153788445</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0.29307326831707925</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0.28132033008252061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6442,15 +9796,31 @@
         <v>1149</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.26419814861145857</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
         <v>0.55116337252939707</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>5.0037528146109581E-4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0.44833625218914186</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0.2636977733299975</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>0.28746559919939957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6467,15 +9837,31 @@
         <v>1172</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.23492619464598449</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>0.52789592194145607</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>2.501876407305479E-4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0.47185389041781334</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0.23467600700525393</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0.29321991493620214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6492,15 +9878,31 @@
         <v>1188</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.20605151287821954</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
         <v>0.50312578144536135</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0.49687421855463865</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0.20605151287821954</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>0.29707426856714181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6517,15 +9919,31 @@
         <v>1206</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.17783891945972988</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
         <v>0.47948974487243623</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0.52051025512756377</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0.17783891945972988</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>0.30165082541270638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6542,15 +9960,31 @@
         <v>1221</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.15007503751875939</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
         <v>0.45547773886943471</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0.54452226113056523</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0.15007503751875939</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>0.30540270135067532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6567,15 +10001,31 @@
         <v>1217</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.13028257064266066</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
         <v>0.43460865216304079</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0.56539134783695921</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0.13028257064266066</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>0.3043260815203801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6592,15 +10042,31 @@
         <v>1222</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.11202800700175043</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
         <v>0.41760440110027508</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.58239559889972492</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0.11202800700175043</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>0.30557639409852461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6617,15 +10083,31 @@
         <v>1207</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.4023505876469113E-2</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
         <v>0.39584896224056015</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0.6041510377594399</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>9.4023505876469113E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>0.30182545636409103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6642,15 +10124,31 @@
         <v>1190</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.6288144072036018E-2</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
         <v>0.37393696848424213</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>0.62606303151575793</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>7.6288144072036018E-2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>0.29764882441220608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6667,15 +10165,31 @@
         <v>1178</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.8764691172793197E-2</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
         <v>0.35333833458364589</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>0.64666166541635406</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>5.8764691172793197E-2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>0.29457364341085274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6692,15 +10206,31 @@
         <v>1168</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.1760440110027504E-2</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
         <v>0.33383345836459116</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>0.66616654163540889</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>4.1760440110027504E-2</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>0.29207301825456367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6717,15 +10247,31 @@
         <v>1137</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.2758189547386844E-2</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
         <v>0.31707926981745438</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>0.68292073018254562</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>3.2758189547386844E-2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>0.28432108027006753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6742,15 +10288,31 @@
         <v>1126</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.4506126531632907E-2</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
         <v>0.30607651912978245</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>0.6939234808702176</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>2.4506126531632907E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>0.28157039259814953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6767,15 +10329,31 @@
         <v>1101</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.6008004002000999E-2</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
         <v>0.29139569784892444</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>0.7086043021510755</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>1.6008004002000999E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>0.27538769384692346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6792,15 +10370,31 @@
         <v>1081</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.0020005001250321E-3</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
         <v>0.27831957989497375</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>0.72168042010502631</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>8.0020005001250321E-3</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>0.27031757939484874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6817,15 +10411,31 @@
         <v>1041</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
         <v>0.2603150787696924</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>0.7396849212303076</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>0.2603150787696924</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6842,15 +10452,31 @@
         <v>995</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
         <v>0.24881220305076268</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>0.75118779694923732</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>0.24881220305076268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6867,15 +10493,31 @@
         <v>948</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
         <v>0.23705926481620404</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>0.7629407351837959</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>0.23705926481620404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6892,15 +10534,31 @@
         <v>905</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
         <v>0.22630657664416104</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>0.77369342335583891</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>0.22630657664416104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6917,15 +10575,31 @@
         <v>867</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
         <v>0.21680420105026257</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>0.78319579894973745</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>0.21680420105026257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6942,15 +10616,31 @@
         <v>822</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
         <v>0.20555138784696175</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>0.7944486121530383</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>0.20555138784696175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6967,15 +10657,31 @@
         <v>788</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
         <v>0.1970492623155789</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>0.80295073768442116</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>0.1970492623155789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6992,15 +10698,31 @@
         <v>744</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
         <v>0.18604651162790697</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>0.18604651162790697</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -7017,15 +10739,31 @@
         <v>710</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
         <v>0.17754438609652412</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>0.82245561390347588</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>0.17754438609652412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -7042,15 +10780,31 @@
         <v>671</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
         <v>0.16779194798699676</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>0.8322080520130033</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>0.16779194798699676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -7067,15 +10821,31 @@
         <v>638</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
         <v>0.1595398849712428</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>0.84046011502875717</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>0.1595398849712428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -7092,15 +10862,31 @@
         <v>592</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
         <v>0.14803700925231308</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>0.85196299074768689</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>0.14803700925231308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -7117,15 +10903,31 @@
         <v>559</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
         <v>0.13978494623655913</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>0.86021505376344087</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>0.13978494623655913</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7142,15 +10944,31 @@
         <v>518</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
         <v>0.12953238309577395</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>0.87046761690422603</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>0.12953238309577395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7167,15 +10985,31 @@
         <v>484</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
         <v>0.12103025756439109</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>0.87896974243560888</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>0.12103025756439109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7192,15 +11026,31 @@
         <v>449</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
         <v>0.11227806951737934</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>0.8877219304826206</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>0.11227806951737934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7217,15 +11067,31 @@
         <v>421</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
         <v>0.10527631907976995</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>0.89472368092023002</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>0.10527631907976995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7242,15 +11108,31 @@
         <v>390</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
         <v>9.7524381095273824E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>0.90247561890472616</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>9.7524381095273824E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7267,15 +11149,31 @@
         <v>365</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
         <v>9.1272818204551132E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>0.90872718179544887</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>9.1272818204551132E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7292,15 +11190,31 @@
         <v>338</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
         <v>8.4521130282570647E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>0.91547886971742931</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>8.4521130282570647E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7317,15 +11231,31 @@
         <v>316</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
         <v>7.9019754938734685E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>0.9209802450612653</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>7.9019754938734685E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7342,15 +11272,31 @@
         <v>295</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
         <v>7.3768442110527632E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>0.92623155788947242</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>7.3768442110527632E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7367,15 +11313,31 @@
         <v>277</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="2">((E67+D67)/(B67+C67+D67+E67))</f>
+        <f t="shared" ref="G67:G130" si="6">((E67+D67)/(B67+C67+D67+E67))</f>
         <v>6.9267316829207295E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="7">(B67/(B67+C67+D67+E67))</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="8">(C67/(C67+D67+B67+E67))</f>
+        <v>0.93073268317079272</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="9">(D67/(B67+C67+D67+E67))</f>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="10">(E67/(B67+C67+D67+E67))</f>
+        <v>6.9267316829207295E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7392,15 +11354,31 @@
         <v>256</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F131" si="3">((B68+D68)/(B68+D68+E68+C68))</f>
+        <f t="shared" ref="F68:F131" si="11">((B68+D68)/(B68+D68+E68+C68))</f>
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.4016004001000257E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="8"/>
+        <v>0.93598399599899973</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="10"/>
+        <v>6.4016004001000257E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7417,15 +11395,31 @@
         <v>240</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.0015003750937733E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="8"/>
+        <v>0.93998499624906229</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="10"/>
+        <v>6.0015003750937733E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7442,15 +11436,31 @@
         <v>222</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.5513878469617403E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="8"/>
+        <v>0.94448612153038258</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="10"/>
+        <v>5.5513878469617403E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7467,15 +11477,31 @@
         <v>205</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.1262815703925983E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="8"/>
+        <v>0.94873718429607401</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="10"/>
+        <v>5.1262815703925983E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7492,15 +11518,31 @@
         <v>190</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.7511877969492376E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="8"/>
+        <v>0.95248812203050759</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="10"/>
+        <v>4.7511877969492376E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7517,15 +11559,31 @@
         <v>178</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.4511127781945485E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="8"/>
+        <v>0.95548887221805456</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="10"/>
+        <v>4.4511127781945485E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7542,15 +11600,31 @@
         <v>164</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.1010252563140788E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="8"/>
+        <v>0.95898974743685916</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="10"/>
+        <v>4.1010252563140788E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7567,15 +11641,31 @@
         <v>152</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.8009502375593897E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="8"/>
+        <v>0.96199049762440614</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="10"/>
+        <v>3.8009502375593897E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7592,15 +11682,31 @@
         <v>141</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.5258814703675916E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="8"/>
+        <v>0.96474118529632413</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="10"/>
+        <v>3.5258814703675916E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7617,15 +11723,31 @@
         <v>129</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.2258064516129031E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="8"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="10"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7642,15 +11764,31 @@
         <v>118</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.9507376844211054E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="8"/>
+        <v>0.97049262315578899</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="10"/>
+        <v>2.9507376844211054E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7667,15 +11805,31 @@
         <v>109</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.7256814203550889E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="8"/>
+        <v>0.97274318579644914</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="10"/>
+        <v>2.7256814203550889E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7692,15 +11846,31 @@
         <v>100</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5006251562890724E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="8"/>
+        <v>0.97499374843710929</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="10"/>
+        <v>2.5006251562890724E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7717,15 +11887,31 @@
         <v>92</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.3005751437859465E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="8"/>
+        <v>0.97699424856214057</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="10"/>
+        <v>2.3005751437859465E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7742,15 +11928,31 @@
         <v>84</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.1005251312828207E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="8"/>
+        <v>0.97899474868717185</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="10"/>
+        <v>2.1005251312828207E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7767,15 +11969,31 @@
         <v>77</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.9254813703425855E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="8"/>
+        <v>0.98074518629657415</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="10"/>
+        <v>1.9254813703425855E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7792,15 +12010,31 @@
         <v>70</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.7504376094023506E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="8"/>
+        <v>0.98249562390597645</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="10"/>
+        <v>1.7504376094023506E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7817,15 +12051,31 @@
         <v>64</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.6004001000250064E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="8"/>
+        <v>0.98399599899974999</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="10"/>
+        <v>1.6004001000250064E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7842,15 +12092,31 @@
         <v>58</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.4503625906476619E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="8"/>
+        <v>0.98549637409352342</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="10"/>
+        <v>1.4503625906476619E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7867,15 +12133,31 @@
         <v>52</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.3003250812703177E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="8"/>
+        <v>0.98699674918729685</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="10"/>
+        <v>1.3003250812703177E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7892,15 +12174,31 @@
         <v>46</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1502875718929733E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="8"/>
+        <v>0.98849712428107028</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="10"/>
+        <v>1.1502875718929733E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7917,15 +12215,31 @@
         <v>42</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0502625656414103E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="8"/>
+        <v>0.98949737434358587</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="10"/>
+        <v>1.0502625656414103E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7942,15 +12256,31 @@
         <v>37</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.2523130782695678E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="8"/>
+        <v>0.99074768692173043</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="10"/>
+        <v>9.2523130782695678E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7967,15 +12297,31 @@
         <v>33</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.2520630157539385E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="8"/>
+        <v>0.99174793698424601</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="10"/>
+        <v>8.2520630157539385E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7992,15 +12338,31 @@
         <v>30</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.5018754688672166E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="8"/>
+        <v>0.99249812453113273</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="10"/>
+        <v>7.5018754688672166E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -8017,15 +12379,31 @@
         <v>27</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.7516879219804947E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="8"/>
+        <v>0.99324831207801956</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="10"/>
+        <v>6.7516879219804947E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -8042,15 +12420,31 @@
         <v>24</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.0015003750937736E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="8"/>
+        <v>0.99399849962490627</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="10"/>
+        <v>6.0015003750937736E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -8067,15 +12461,31 @@
         <v>22</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.501375343835959E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="8"/>
+        <v>0.99449862465616401</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="10"/>
+        <v>5.501375343835959E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8092,15 +12502,31 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.0012503125781444E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="8"/>
+        <v>0.99499874968742186</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="10"/>
+        <v>5.0012503125781444E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8117,15 +12543,31 @@
         <v>18</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.5011252813203298E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="8"/>
+        <v>0.9954988747186797</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="10"/>
+        <v>4.5011252813203298E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -8142,15 +12584,31 @@
         <v>16</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.001000250062516E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="8"/>
+        <v>0.99599899974993744</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="10"/>
+        <v>4.001000250062516E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -8167,15 +12625,31 @@
         <v>14</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.500875218804701E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="8"/>
+        <v>0.99649912478119529</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="10"/>
+        <v>3.500875218804701E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -8192,15 +12666,31 @@
         <v>12</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.0007501875468868E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="8"/>
+        <v>0.99699924981245314</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="10"/>
+        <v>3.0007501875468868E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -8217,15 +12707,31 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.7506876719179795E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="8"/>
+        <v>0.997249312328082</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="10"/>
+        <v>2.7506876719179795E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -8242,15 +12748,31 @@
         <v>10</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5006251562890722E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="8"/>
+        <v>0.99749937484371087</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="10"/>
+        <v>2.5006251562890722E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -8267,15 +12789,31 @@
         <v>9</v>
       </c>
       <c r="F103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.2505626406601649E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="8"/>
+        <v>0.99774943735933985</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="10"/>
+        <v>2.2505626406601649E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -8292,15 +12830,31 @@
         <v>8</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.000500125031258E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H104">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="8"/>
+        <v>0.99799949987496872</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="10"/>
+        <v>2.000500125031258E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -8317,15 +12871,31 @@
         <v>7</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.7504376094023505E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="8"/>
+        <v>0.9982495623905977</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="10"/>
+        <v>1.7504376094023505E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -8342,15 +12912,31 @@
         <v>6</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.5003750937734434E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="8"/>
+        <v>0.99849962490622657</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="10"/>
+        <v>1.5003750937734434E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -8367,15 +12953,31 @@
         <v>5</v>
       </c>
       <c r="F107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.2503125781445361E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="8"/>
+        <v>0.99874968742185544</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="10"/>
+        <v>1.2503125781445361E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -8392,15 +12994,31 @@
         <v>4</v>
       </c>
       <c r="F108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.000250062515629E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="8"/>
+        <v>0.99899974993748442</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="10"/>
+        <v>1.000250062515629E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8417,15 +13035,31 @@
         <v>3</v>
       </c>
       <c r="F109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.501875468867217E-4</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="8"/>
+        <v>0.99924981245311328</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="10"/>
+        <v>7.501875468867217E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -8442,15 +13076,31 @@
         <v>2</v>
       </c>
       <c r="F110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.0012503125781451E-4</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="8"/>
+        <v>0.99949987496874215</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="10"/>
+        <v>5.0012503125781451E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8467,15 +13117,31 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5006251562890725E-4</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="8"/>
+        <v>0.99974993748437113</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="10"/>
+        <v>2.5006251562890725E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -8492,15 +13158,31 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G112">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8517,15 +13199,31 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G113">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8542,15 +13240,31 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8567,15 +13281,31 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8592,15 +13322,31 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G116">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8617,15 +13363,31 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8642,15 +13404,31 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8667,15 +13445,31 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8692,15 +13486,31 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8717,15 +13527,31 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8742,15 +13568,31 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8767,15 +13609,31 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8792,15 +13650,31 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8817,15 +13691,31 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G125">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8842,15 +13732,31 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G126">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8867,15 +13773,31 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8892,15 +13814,31 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8917,15 +13855,31 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G129">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8942,15 +13896,31 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8967,15 +13937,31 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G152" si="4">((E131+D131)/(B131+C131+D131+E131))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" ref="G131:G152" si="12">((E131+D131)/(B131+C131+D131+E131))</f>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H152" si="13">(B131/(B131+C131+D131+E131))</f>
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I152" si="14">(C131/(C131+D131+B131+E131))</f>
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J152" si="15">(D131/(B131+C131+D131+E131))</f>
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K152" si="16">(E131/(B131+C131+D131+E131))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8992,15 +13978,31 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <f t="shared" ref="F132:F152" si="5">((B132+D132)/(B132+D132+E132+C132))</f>
+        <f t="shared" ref="F132:F152" si="17">((B132+D132)/(B132+D132+E132+C132))</f>
         <v>0</v>
       </c>
       <c r="G132">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -9017,15 +14019,31 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G133">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -9042,15 +14060,31 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G134">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -9067,15 +14101,31 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G135">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -9092,15 +14142,31 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G136">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -9117,15 +14183,31 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -9142,15 +14224,31 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G138">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -9167,15 +14265,31 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G139">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -9192,15 +14306,31 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G140">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -9217,15 +14347,31 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G141">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9242,15 +14388,31 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G142">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9267,15 +14429,31 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G143">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9292,15 +14470,31 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G144">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9317,15 +14511,31 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G145">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9342,15 +14552,31 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G146">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9367,15 +14593,31 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G147">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9392,15 +14634,31 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G148">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9417,15 +14675,31 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G149">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9442,15 +14716,31 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G150">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9467,15 +14757,31 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G151">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9492,11 +14798,27 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
